--- a/src/assets/ListeMaCave.xlsx
+++ b/src/assets/ListeMaCave.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$B$2:$R$740</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$B$2:$S$740</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$B$2:$S$740</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$B$2:$R$740</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Feuille1!$B$2:$R$736</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Feuille1!$B$2:$Q$722</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Feuille1!$B$2:$R$720</definedName>
@@ -3237,7 +3237,7 @@
     <t xml:space="preserve">Ref_0455</t>
   </si>
   <si>
-    <t xml:space="preserve">OK_0453</t>
+    <t xml:space="preserve">OK_0454</t>
   </si>
   <si>
     <t xml:space="preserve">Grille_2_M6</t>
@@ -4284,7 +4284,7 @@
     <t xml:space="preserve">Ref_0606</t>
   </si>
   <si>
-    <t xml:space="preserve">OK_0603</t>
+    <t xml:space="preserve">OK_0605</t>
   </si>
   <si>
     <t xml:space="preserve">Grille_1_N10</t>
@@ -5661,13 +5661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:AMJ740"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F741" activeCellId="0" sqref="F741"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H571" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S587" activeCellId="0" sqref="S587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5749,7 +5749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>67</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="57.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>96</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>109</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
         <v>109</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
         <v>137</v>
       </c>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="45.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="4" t="s">
         <v>141</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="45.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="4" t="s">
         <v>141</v>
       </c>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>149</v>
       </c>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
         <v>149</v>
       </c>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
         <v>156</v>
       </c>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
         <v>160</v>
       </c>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
         <v>160</v>
       </c>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
         <v>169</v>
       </c>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>172</v>
       </c>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>169</v>
       </c>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
         <v>169</v>
       </c>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="4"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="4"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="4" t="s">
         <v>184</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>188</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
         <v>188</v>
       </c>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>195</v>
       </c>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>195</v>
       </c>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>195</v>
       </c>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
         <v>172</v>
       </c>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
         <v>172</v>
       </c>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
         <v>211</v>
       </c>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
         <v>211</v>
       </c>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="4"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="4"/>
       <c r="H59" s="7"/>
       <c r="P59" s="1" t="s">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="4"/>
       <c r="H60" s="7"/>
       <c r="P60" s="1" t="s">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="4"/>
       <c r="H61" s="7"/>
       <c r="P61" s="1" t="s">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="4"/>
       <c r="H62" s="7"/>
       <c r="P62" s="1" t="s">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="4"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
         <v>224</v>
       </c>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
         <v>224</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G66" s="4"/>
       <c r="H66" s="7"/>
       <c r="P66" s="1" t="s">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G67" s="4"/>
       <c r="H67" s="7"/>
       <c r="P67" s="1" t="s">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
         <v>233</v>
       </c>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
         <v>233</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
         <v>233</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
         <v>233</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
         <v>233</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
         <v>233</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
         <v>233</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
         <v>233</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="8" t="s">
         <v>245</v>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="AMJ76" s="12"/>
     </row>
-    <row r="77" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="8" t="s">
         <v>245</v>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="AMJ77" s="12"/>
     </row>
-    <row r="78" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="8" t="s">
         <v>245</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="AMJ78" s="12"/>
     </row>
-    <row r="79" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="8" t="s">
         <v>245</v>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="AMJ79" s="12"/>
     </row>
-    <row r="80" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="8" t="s">
         <v>245</v>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="AMJ80" s="12"/>
     </row>
-    <row r="81" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="8" t="s">
         <v>245</v>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="AMJ81" s="12"/>
     </row>
-    <row r="82" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="8" t="s">
         <v>245</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AMJ82" s="12"/>
     </row>
-    <row r="83" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="8" t="s">
         <v>245</v>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="AMJ83" s="12"/>
     </row>
-    <row r="84" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
         <v>257</v>
       </c>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="AMJ84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
         <v>262</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
         <v>266</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="AMJ86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>271</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
         <v>271</v>
       </c>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="AMJ88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
         <v>271</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="AMJ89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
         <v>271</v>
       </c>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="AMJ90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
         <v>271</v>
       </c>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="AMJ91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
         <v>278</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
         <v>278</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
         <v>278</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
         <v>283</v>
       </c>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="AMJ95" s="0"/>
     </row>
-    <row r="96" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="4" t="s">
         <v>288</v>
       </c>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
         <v>30</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="4" t="s">
         <v>293</v>
       </c>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="AMJ98" s="0"/>
     </row>
-    <row r="99" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
         <v>297</v>
       </c>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="AMJ99" s="0"/>
     </row>
-    <row r="100" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
         <v>300</v>
       </c>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="AMJ100" s="0"/>
     </row>
-    <row r="101" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
         <v>300</v>
       </c>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="AMJ101" s="0"/>
     </row>
-    <row r="102" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
         <v>300</v>
       </c>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="AMJ102" s="0"/>
     </row>
-    <row r="103" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
         <v>310</v>
       </c>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="AMJ103" s="0"/>
     </row>
-    <row r="104" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
         <v>314</v>
       </c>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="AMJ104" s="0"/>
     </row>
-    <row r="105" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
         <v>314</v>
       </c>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="AMJ105" s="0"/>
     </row>
-    <row r="106" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
         <v>314</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="AMJ106" s="0"/>
     </row>
-    <row r="107" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
         <v>314</v>
       </c>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="108" customFormat="false" ht="67.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
         <v>314</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="AMJ108" s="0"/>
     </row>
-    <row r="109" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
         <v>327</v>
       </c>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="AMJ109" s="0"/>
     </row>
-    <row r="110" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
         <v>331</v>
       </c>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="AMJ110" s="0"/>
     </row>
-    <row r="111" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
         <v>334</v>
       </c>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="AMJ111" s="0"/>
     </row>
-    <row r="112" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
         <v>337</v>
       </c>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="AMJ112" s="0"/>
     </row>
-    <row r="113" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
         <v>341</v>
       </c>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="AMJ113" s="0"/>
     </row>
-    <row r="114" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
         <v>30</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="AMJ114" s="0"/>
     </row>
-    <row r="115" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
         <v>347</v>
       </c>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="AMJ115" s="0"/>
     </row>
-    <row r="116" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
         <v>350</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="AMJ116" s="0"/>
     </row>
-    <row r="117" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
         <v>353</v>
       </c>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="AMJ117" s="0"/>
     </row>
-    <row r="118" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
         <v>356</v>
       </c>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="AMJ118" s="0"/>
     </row>
-    <row r="119" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
         <v>359</v>
       </c>
@@ -10968,7 +10968,7 @@
       </c>
       <c r="AMJ119" s="0"/>
     </row>
-    <row r="120" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
         <v>359</v>
       </c>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="AMJ120" s="0"/>
     </row>
-    <row r="121" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
         <v>359</v>
       </c>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="AMJ121" s="0"/>
     </row>
-    <row r="122" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
         <v>359</v>
       </c>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="AMJ122" s="0"/>
     </row>
-    <row r="123" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="8" t="s">
         <v>359</v>
       </c>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="AMJ123" s="0"/>
     </row>
-    <row r="124" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="8" t="s">
         <v>359</v>
       </c>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="AMJ124" s="0"/>
     </row>
-    <row r="125" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="8" t="s">
         <v>359</v>
       </c>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="AMJ125" s="0"/>
     </row>
-    <row r="126" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="8" t="s">
         <v>359</v>
       </c>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="8" t="s">
         <v>359</v>
       </c>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="AMJ127" s="0"/>
     </row>
-    <row r="128" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="8" t="s">
         <v>359</v>
       </c>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="AMJ128" s="0"/>
     </row>
-    <row r="129" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="8" t="s">
         <v>359</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="8" t="s">
         <v>359</v>
       </c>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="AMJ130" s="0"/>
     </row>
-    <row r="131" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="8" t="s">
         <v>359</v>
       </c>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="AMJ131" s="0"/>
     </row>
-    <row r="132" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="8" t="s">
         <v>359</v>
       </c>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="AMJ132" s="0"/>
     </row>
-    <row r="133" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="8" t="s">
         <v>359</v>
       </c>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="8" t="s">
         <v>359</v>
       </c>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="AMJ134" s="0"/>
     </row>
-    <row r="135" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="8" t="s">
         <v>359</v>
       </c>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="AMJ135" s="0"/>
     </row>
-    <row r="136" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="8" t="s">
         <v>359</v>
       </c>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="AMJ136" s="0"/>
     </row>
-    <row r="137" s="15" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="15" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="16" t="s">
         <v>382</v>
       </c>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="AMJ137" s="19"/>
     </row>
-    <row r="138" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="B138" s="8" t="s">
         <v>359</v>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="AMJ138" s="12"/>
     </row>
-    <row r="139" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
       <c r="B139" s="8" t="s">
         <v>359</v>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="AMJ139" s="12"/>
     </row>
-    <row r="140" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="B140" s="8" t="s">
         <v>359</v>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="AMJ140" s="12"/>
     </row>
-    <row r="141" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
       <c r="B141" s="8" t="s">
         <v>359</v>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="AMJ141" s="12"/>
     </row>
-    <row r="142" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="B142" s="8" t="s">
         <v>359</v>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="AMJ142" s="12"/>
     </row>
-    <row r="143" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="B143" s="8" t="s">
         <v>359</v>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="AMJ143" s="12"/>
     </row>
-    <row r="144" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
       <c r="B144" s="8" t="s">
         <v>359</v>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="AMJ144" s="12"/>
     </row>
-    <row r="145" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="B145" s="8" t="s">
         <v>359</v>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="AMJ145" s="12"/>
     </row>
-    <row r="146" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="8" t="s">
         <v>359</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="AMJ146" s="12"/>
     </row>
-    <row r="147" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="B147" s="8" t="s">
         <v>359</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="AMJ147" s="12"/>
     </row>
-    <row r="148" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="8" t="s">
         <v>359</v>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="AMJ148" s="12"/>
     </row>
-    <row r="149" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="8" t="s">
         <v>359</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="AMJ149" s="12"/>
     </row>
-    <row r="150" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1" t="s">
         <v>359</v>
       </c>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="AMJ150" s="0"/>
     </row>
-    <row r="151" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="1" t="s">
         <v>359</v>
       </c>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="AMJ151" s="0"/>
     </row>
-    <row r="152" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
         <v>359</v>
       </c>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="AMJ152" s="0"/>
     </row>
-    <row r="153" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
         <v>359</v>
       </c>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="AMJ153" s="0"/>
     </row>
-    <row r="154" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="s">
         <v>359</v>
       </c>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="AMJ154" s="0"/>
     </row>
-    <row r="155" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="1" t="s">
         <v>359</v>
       </c>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="AMJ155" s="0"/>
     </row>
-    <row r="156" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="1" t="s">
         <v>359</v>
       </c>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="AMJ156" s="0"/>
     </row>
-    <row r="157" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="1" t="s">
         <v>359</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="AMJ157" s="0"/>
     </row>
-    <row r="158" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="1" t="s">
         <v>359</v>
       </c>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="AMJ158" s="0"/>
     </row>
-    <row r="159" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1" t="s">
         <v>359</v>
       </c>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="AMJ159" s="0"/>
     </row>
-    <row r="160" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1" t="s">
         <v>359</v>
       </c>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="AMJ160" s="0"/>
     </row>
-    <row r="161" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1" t="s">
         <v>359</v>
       </c>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="AMJ161" s="0"/>
     </row>
-    <row r="162" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="s">
         <v>411</v>
       </c>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="AMJ162" s="0"/>
     </row>
-    <row r="163" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="1" t="s">
         <v>414</v>
       </c>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="AMJ163" s="0"/>
     </row>
-    <row r="164" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
         <v>414</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="AMJ164" s="0"/>
     </row>
-    <row r="165" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="1" t="s">
         <v>414</v>
       </c>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="AMJ165" s="0"/>
     </row>
-    <row r="166" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="1" t="s">
         <v>414</v>
       </c>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="AMJ166" s="0"/>
     </row>
-    <row r="167" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="1" t="s">
         <v>414</v>
       </c>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="AMJ167" s="0"/>
     </row>
-    <row r="168" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1" t="s">
         <v>414</v>
       </c>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="AMJ168" s="0"/>
     </row>
-    <row r="169" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="1" t="s">
         <v>414</v>
       </c>
@@ -13585,7 +13585,7 @@
       </c>
       <c r="AMJ169" s="0"/>
     </row>
-    <row r="170" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1" t="s">
         <v>414</v>
       </c>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="AMJ170" s="0"/>
     </row>
-    <row r="171" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="s">
         <v>414</v>
       </c>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="AMJ171" s="0"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G172" s="4"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="AMJ172" s="0"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G173" s="4"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="AMJ173" s="0"/>
     </row>
-    <row r="174" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="s">
         <v>429</v>
       </c>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="AMJ174" s="0"/>
     </row>
-    <row r="175" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1" t="s">
         <v>429</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="AMJ175" s="0"/>
     </row>
-    <row r="176" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="1" t="s">
         <v>429</v>
       </c>
@@ -13864,7 +13864,7 @@
       </c>
       <c r="AMJ176" s="0"/>
     </row>
-    <row r="177" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="1" t="s">
         <v>429</v>
       </c>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="AMJ177" s="0"/>
     </row>
-    <row r="178" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
         <v>429</v>
       </c>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="AMJ178" s="0"/>
     </row>
-    <row r="179" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
         <v>429</v>
       </c>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="AMJ179" s="0"/>
     </row>
-    <row r="180" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="s">
         <v>429</v>
       </c>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="AMJ180" s="0"/>
     </row>
-    <row r="181" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="1" t="s">
         <v>429</v>
       </c>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="AMJ181" s="0"/>
     </row>
-    <row r="182" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1" t="s">
         <v>429</v>
       </c>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="AMJ182" s="0"/>
     </row>
-    <row r="183" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1" t="s">
         <v>429</v>
       </c>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="AMJ183" s="0"/>
     </row>
-    <row r="184" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1" t="s">
         <v>452</v>
       </c>
@@ -14272,7 +14272,7 @@
       </c>
       <c r="AMJ184" s="0"/>
     </row>
-    <row r="185" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="1" t="s">
         <v>452</v>
       </c>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="AMJ185" s="0"/>
     </row>
-    <row r="186" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
         <v>452</v>
       </c>
@@ -14374,7 +14374,7 @@
       </c>
       <c r="AMJ186" s="0"/>
     </row>
-    <row r="187" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="1" t="s">
         <v>452</v>
       </c>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="AMJ187" s="0"/>
     </row>
-    <row r="188" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
         <v>452</v>
       </c>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="AMJ188" s="0"/>
     </row>
-    <row r="189" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
         <v>452</v>
       </c>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="AMJ189" s="0"/>
     </row>
-    <row r="190" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="B190" s="8" t="s">
         <v>452</v>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="AMJ190" s="12"/>
     </row>
-    <row r="191" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1"/>
       <c r="B191" s="8" t="s">
         <v>452</v>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="AMJ191" s="12"/>
     </row>
-    <row r="192" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1"/>
       <c r="B192" s="8" t="s">
         <v>452</v>
@@ -14689,7 +14689,7 @@
       </c>
       <c r="AMJ192" s="12"/>
     </row>
-    <row r="193" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="B193" s="8" t="s">
         <v>452</v>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="AMJ193" s="12"/>
     </row>
-    <row r="194" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="B194" s="8" t="s">
         <v>452</v>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="AMJ194" s="12"/>
     </row>
-    <row r="195" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1"/>
       <c r="B195" s="8" t="s">
         <v>452</v>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="AMJ195" s="12"/>
     </row>
-    <row r="196" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="B196" s="8" t="s">
         <v>452</v>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="AMJ196" s="12"/>
     </row>
-    <row r="197" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1"/>
       <c r="B197" s="8" t="s">
         <v>452</v>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="AMJ197" s="12"/>
     </row>
-    <row r="198" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="B198" s="8" t="s">
         <v>452</v>
@@ -15013,7 +15013,7 @@
       </c>
       <c r="AMJ198" s="12"/>
     </row>
-    <row r="199" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
       <c r="B199" s="8" t="s">
         <v>452</v>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="AMJ199" s="12"/>
     </row>
-    <row r="200" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="B200" s="8" t="s">
         <v>452</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="AMJ200" s="12"/>
     </row>
-    <row r="201" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1"/>
       <c r="B201" s="8" t="s">
         <v>452</v>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="AMJ201" s="12"/>
     </row>
-    <row r="202" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1"/>
       <c r="B202" s="8" t="s">
         <v>452</v>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="AMJ202" s="12"/>
     </row>
-    <row r="203" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1"/>
       <c r="B203" s="8" t="s">
         <v>452</v>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="AMJ203" s="12"/>
     </row>
-    <row r="204" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1"/>
       <c r="B204" s="8" t="s">
         <v>452</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="AMJ204" s="12"/>
     </row>
-    <row r="205" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1"/>
       <c r="B205" s="8" t="s">
         <v>452</v>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="AMJ205" s="12"/>
     </row>
-    <row r="206" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1"/>
       <c r="B206" s="8" t="s">
         <v>452</v>
@@ -15445,7 +15445,7 @@
       </c>
       <c r="AMJ206" s="12"/>
     </row>
-    <row r="207" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="B207" s="8" t="s">
         <v>452</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="AMJ207" s="12"/>
     </row>
-    <row r="208" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
       <c r="B208" s="8" t="s">
         <v>452</v>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="AMJ208" s="12"/>
     </row>
-    <row r="209" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1"/>
       <c r="B209" s="8" t="s">
         <v>452</v>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="AMJ209" s="12"/>
     </row>
-    <row r="210" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1"/>
       <c r="B210" s="8" t="s">
         <v>452</v>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="AMJ210" s="12"/>
     </row>
-    <row r="211" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
       <c r="B211" s="8" t="s">
         <v>452</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="AMJ211" s="12"/>
     </row>
-    <row r="212" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1"/>
       <c r="B212" s="8" t="s">
         <v>452</v>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="AMJ212" s="12"/>
     </row>
-    <row r="213" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1"/>
       <c r="B213" s="8" t="s">
         <v>452</v>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="AMJ213" s="12"/>
     </row>
-    <row r="214" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
       <c r="B214" s="8" t="s">
         <v>452</v>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="AMJ214" s="12"/>
     </row>
-    <row r="215" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1"/>
       <c r="B215" s="8" t="s">
         <v>452</v>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="AMJ215" s="12"/>
     </row>
-    <row r="216" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1"/>
       <c r="B216" s="8" t="s">
         <v>452</v>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="AMJ216" s="12"/>
     </row>
-    <row r="217" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
       <c r="B217" s="8" t="s">
         <v>452</v>
@@ -16039,7 +16039,7 @@
       </c>
       <c r="AMJ217" s="12"/>
     </row>
-    <row r="218" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1"/>
       <c r="B218" s="8" t="s">
         <v>452</v>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="AMJ218" s="12"/>
     </row>
-    <row r="219" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
       <c r="B219" s="8" t="s">
         <v>452</v>
@@ -16147,7 +16147,7 @@
       </c>
       <c r="AMJ219" s="12"/>
     </row>
-    <row r="220" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1"/>
       <c r="B220" s="8" t="s">
         <v>452</v>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="AMJ220" s="12"/>
     </row>
-    <row r="221" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1"/>
       <c r="B221" s="8" t="s">
         <v>452</v>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="AMJ221" s="12"/>
     </row>
-    <row r="222" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1"/>
       <c r="B222" s="8" t="s">
         <v>452</v>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="AMJ222" s="12"/>
     </row>
-    <row r="223" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1"/>
       <c r="B223" s="8" t="s">
         <v>452</v>
@@ -16363,7 +16363,7 @@
       </c>
       <c r="AMJ223" s="12"/>
     </row>
-    <row r="224" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1"/>
       <c r="B224" s="8" t="s">
         <v>452</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="AMJ224" s="12"/>
     </row>
-    <row r="225" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1"/>
       <c r="B225" s="8" t="s">
         <v>452</v>
@@ -16471,7 +16471,7 @@
       </c>
       <c r="AMJ225" s="12"/>
     </row>
-    <row r="226" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
       <c r="B226" s="8" t="s">
         <v>452</v>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="AMJ226" s="12"/>
     </row>
-    <row r="227" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1"/>
       <c r="B227" s="8" t="s">
         <v>452</v>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="AMJ227" s="12"/>
     </row>
-    <row r="228" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1"/>
       <c r="B228" s="8" t="s">
         <v>452</v>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="AMJ228" s="12"/>
     </row>
-    <row r="229" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
       <c r="B229" s="8" t="s">
         <v>452</v>
@@ -16687,7 +16687,7 @@
       </c>
       <c r="AMJ229" s="12"/>
     </row>
-    <row r="230" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1"/>
       <c r="B230" s="8" t="s">
         <v>452</v>
@@ -16741,7 +16741,7 @@
       </c>
       <c r="AMJ230" s="12"/>
     </row>
-    <row r="231" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1"/>
       <c r="B231" s="8" t="s">
         <v>452</v>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="AMJ231" s="12"/>
     </row>
-    <row r="232" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1"/>
       <c r="B232" s="8" t="s">
         <v>452</v>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="AMJ232" s="12"/>
     </row>
-    <row r="233" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1"/>
       <c r="B233" s="8" t="s">
         <v>452</v>
@@ -16903,7 +16903,7 @@
       </c>
       <c r="AMJ233" s="12"/>
     </row>
-    <row r="234" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1"/>
       <c r="B234" s="8" t="s">
         <v>452</v>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="AMJ234" s="12"/>
     </row>
-    <row r="235" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1"/>
       <c r="B235" s="8" t="s">
         <v>452</v>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="AMJ235" s="12"/>
     </row>
-    <row r="236" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1"/>
       <c r="B236" s="8" t="s">
         <v>452</v>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="AMJ236" s="12"/>
     </row>
-    <row r="237" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
       <c r="B237" s="8" t="s">
         <v>452</v>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="AMJ237" s="12"/>
     </row>
-    <row r="238" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1"/>
       <c r="B238" s="8" t="s">
         <v>452</v>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="AMJ238" s="12"/>
     </row>
-    <row r="239" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1"/>
       <c r="B239" s="8" t="s">
         <v>452</v>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="AMJ239" s="12"/>
     </row>
-    <row r="240" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1"/>
       <c r="B240" s="8" t="s">
         <v>452</v>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="AMJ240" s="12"/>
     </row>
-    <row r="241" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1"/>
       <c r="B241" s="8" t="s">
         <v>452</v>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="AMJ241" s="12"/>
     </row>
-    <row r="242" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1"/>
       <c r="B242" s="8" t="s">
         <v>452</v>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="AMJ242" s="12"/>
     </row>
-    <row r="243" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1"/>
       <c r="B243" s="8" t="s">
         <v>452</v>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="AMJ243" s="12"/>
     </row>
-    <row r="244" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1"/>
       <c r="B244" s="8" t="s">
         <v>452</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="AMJ244" s="12"/>
     </row>
-    <row r="245" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1"/>
       <c r="B245" s="8" t="s">
         <v>452</v>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="AMJ245" s="12"/>
     </row>
-    <row r="246" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1"/>
       <c r="B246" s="8" t="s">
         <v>452</v>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="AMJ246" s="12"/>
     </row>
-    <row r="247" s="11" customFormat="true" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="11" customFormat="true" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1"/>
       <c r="B247" s="8" t="s">
         <v>452</v>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="AMJ247" s="12"/>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G248" s="4"/>
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
@@ -17668,7 +17668,7 @@
       </c>
       <c r="AMJ248" s="0"/>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G249" s="4"/>
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
@@ -17677,7 +17677,7 @@
       </c>
       <c r="AMJ249" s="0"/>
     </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G250" s="4"/>
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="AMJ250" s="0"/>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G251" s="4"/>
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="AMJ251" s="0"/>
     </row>
-    <row r="252" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="4" t="s">
         <v>523</v>
       </c>
@@ -17746,7 +17746,7 @@
       </c>
       <c r="AMJ252" s="0"/>
     </row>
-    <row r="253" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="4" t="s">
         <v>523</v>
       </c>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="AMJ253" s="0"/>
     </row>
-    <row r="254" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="4" t="s">
         <v>523</v>
       </c>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="AMJ254" s="0"/>
     </row>
-    <row r="255" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="4" t="s">
         <v>523</v>
       </c>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="AMJ255" s="0"/>
     </row>
-    <row r="256" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="4" t="s">
         <v>523</v>
       </c>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="AMJ256" s="0"/>
     </row>
-    <row r="257" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="4" t="s">
         <v>523</v>
       </c>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="AMJ257" s="0"/>
     </row>
-    <row r="258" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="4" t="s">
         <v>523</v>
       </c>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="AMJ258" s="0"/>
     </row>
-    <row r="259" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="4" t="s">
         <v>523</v>
       </c>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="AMJ259" s="0"/>
     </row>
-    <row r="260" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="4" t="s">
         <v>523</v>
       </c>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="AMJ260" s="0"/>
     </row>
-    <row r="261" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="4" t="s">
         <v>523</v>
       </c>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="AMJ261" s="0"/>
     </row>
-    <row r="262" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="4" t="s">
         <v>523</v>
       </c>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="AMJ262" s="0"/>
     </row>
-    <row r="263" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="4" t="s">
         <v>523</v>
       </c>
@@ -18307,7 +18307,7 @@
       </c>
       <c r="AMJ263" s="0"/>
     </row>
-    <row r="264" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1" t="s">
         <v>539</v>
       </c>
@@ -18358,7 +18358,7 @@
       </c>
       <c r="AMJ264" s="0"/>
     </row>
-    <row r="265" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="s">
         <v>539</v>
       </c>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="AMJ265" s="0"/>
     </row>
-    <row r="266" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="s">
         <v>539</v>
       </c>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="AMJ266" s="0"/>
     </row>
-    <row r="267" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1" t="s">
         <v>539</v>
       </c>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="AMJ267" s="0"/>
     </row>
-    <row r="268" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
         <v>539</v>
       </c>
@@ -18562,7 +18562,7 @@
       </c>
       <c r="AMJ268" s="0"/>
     </row>
-    <row r="269" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="s">
         <v>539</v>
       </c>
@@ -18613,7 +18613,7 @@
       </c>
       <c r="AMJ269" s="0"/>
     </row>
-    <row r="270" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1" t="s">
         <v>539</v>
       </c>
@@ -18664,7 +18664,7 @@
       </c>
       <c r="AMJ270" s="0"/>
     </row>
-    <row r="271" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
         <v>539</v>
       </c>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="AMJ271" s="0"/>
     </row>
-    <row r="272" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="1" t="s">
         <v>539</v>
       </c>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="AMJ272" s="0"/>
     </row>
-    <row r="273" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="1" t="s">
         <v>539</v>
       </c>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="AMJ273" s="0"/>
     </row>
-    <row r="274" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="1" t="s">
         <v>561</v>
       </c>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="AMJ274" s="0"/>
     </row>
-    <row r="275" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="1" t="s">
         <v>561</v>
       </c>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="AMJ275" s="0"/>
     </row>
-    <row r="276" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1" t="s">
         <v>569</v>
       </c>
@@ -18952,7 +18952,7 @@
       </c>
       <c r="AMJ276" s="0"/>
     </row>
-    <row r="277" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="1" t="s">
         <v>224</v>
       </c>
@@ -18997,7 +18997,7 @@
       </c>
       <c r="AMJ277" s="0"/>
     </row>
-    <row r="278" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1" t="s">
         <v>224</v>
       </c>
@@ -19042,7 +19042,7 @@
       </c>
       <c r="AMJ278" s="0"/>
     </row>
-    <row r="279" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="1" t="s">
         <v>224</v>
       </c>
@@ -19087,7 +19087,7 @@
       </c>
       <c r="AMJ279" s="0"/>
     </row>
-    <row r="280" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="1" t="s">
         <v>224</v>
       </c>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="AMJ280" s="0"/>
     </row>
-    <row r="281" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="1" t="s">
         <v>224</v>
       </c>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="AMJ281" s="0"/>
     </row>
-    <row r="282" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="1" t="s">
         <v>224</v>
       </c>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="AMJ282" s="0"/>
     </row>
-    <row r="283" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
         <v>224</v>
       </c>
@@ -19267,7 +19267,7 @@
       </c>
       <c r="AMJ283" s="0"/>
     </row>
-    <row r="284" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="1" t="s">
         <v>224</v>
       </c>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="AMJ284" s="0"/>
     </row>
-    <row r="285" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="1" t="s">
         <v>224</v>
       </c>
@@ -19357,7 +19357,7 @@
       </c>
       <c r="AMJ285" s="0"/>
     </row>
-    <row r="286" s="11" customFormat="true" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" s="11" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1"/>
       <c r="B286" s="8" t="s">
         <v>224</v>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="AMJ286" s="12"/>
     </row>
-    <row r="287" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="1" t="s">
         <v>587</v>
       </c>
@@ -19452,7 +19452,7 @@
       </c>
       <c r="AMJ287" s="0"/>
     </row>
-    <row r="288" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="1" t="s">
         <v>587</v>
       </c>
@@ -19497,7 +19497,7 @@
       </c>
       <c r="AMJ288" s="0"/>
     </row>
-    <row r="289" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="1" t="s">
         <v>169</v>
       </c>
@@ -19542,7 +19542,7 @@
       </c>
       <c r="AMJ289" s="0"/>
     </row>
-    <row r="290" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="1" t="s">
         <v>594</v>
       </c>
@@ -19587,7 +19587,7 @@
       </c>
       <c r="AMJ290" s="0"/>
     </row>
-    <row r="291" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="1" t="s">
         <v>594</v>
       </c>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="AMJ291" s="0"/>
     </row>
-    <row r="292" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="4" t="s">
         <v>600</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="1" t="s">
         <v>160</v>
       </c>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="AMJ293" s="0"/>
     </row>
-    <row r="294" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="1" t="s">
         <v>160</v>
       </c>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="AMJ294" s="0"/>
     </row>
-    <row r="295" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="1" t="s">
         <v>160</v>
       </c>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="AMJ295" s="0"/>
     </row>
-    <row r="296" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="1" t="s">
         <v>188</v>
       </c>
@@ -19856,7 +19856,7 @@
       </c>
       <c r="AMJ296" s="0"/>
     </row>
-    <row r="297" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="1" t="s">
         <v>188</v>
       </c>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="AMJ297" s="0"/>
     </row>
-    <row r="298" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="1" t="s">
         <v>188</v>
       </c>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="AMJ298" s="0"/>
     </row>
-    <row r="299" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="1" t="s">
         <v>616</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="1" t="s">
         <v>616</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="1" t="s">
         <v>616</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="1" t="s">
         <v>616</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="1" t="s">
         <v>616</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="1" t="s">
         <v>616</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="1" t="s">
         <v>626</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="1" t="s">
         <v>626</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="1" t="s">
         <v>631</v>
       </c>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="AMJ307" s="0"/>
     </row>
-    <row r="308" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="1" t="s">
         <v>631</v>
       </c>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AMJ308" s="0"/>
     </row>
-    <row r="309" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="1" t="s">
         <v>631</v>
       </c>
@@ -20433,7 +20433,7 @@
       </c>
       <c r="AMJ309" s="0"/>
     </row>
-    <row r="310" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="1" t="s">
         <v>631</v>
       </c>
@@ -20478,7 +20478,7 @@
       </c>
       <c r="AMJ310" s="0"/>
     </row>
-    <row r="311" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="1" t="s">
         <v>631</v>
       </c>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="AMJ311" s="0"/>
     </row>
-    <row r="312" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="1" t="s">
         <v>631</v>
       </c>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="AMJ312" s="0"/>
     </row>
-    <row r="313" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="1" t="s">
         <v>631</v>
       </c>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="AMJ313" s="0"/>
     </row>
-    <row r="314" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="1" t="s">
         <v>631</v>
       </c>
@@ -20658,7 +20658,7 @@
       </c>
       <c r="AMJ314" s="0"/>
     </row>
-    <row r="315" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="1" t="s">
         <v>631</v>
       </c>
@@ -20703,7 +20703,7 @@
       </c>
       <c r="AMJ315" s="0"/>
     </row>
-    <row r="316" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="1" t="s">
         <v>631</v>
       </c>
@@ -20748,7 +20748,7 @@
       </c>
       <c r="AMJ316" s="0"/>
     </row>
-    <row r="317" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="1" t="s">
         <v>631</v>
       </c>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="AMJ317" s="0"/>
     </row>
-    <row r="318" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="1" t="s">
         <v>631</v>
       </c>
@@ -20838,7 +20838,7 @@
       </c>
       <c r="AMJ318" s="0"/>
     </row>
-    <row r="319" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="1" t="s">
         <v>631</v>
       </c>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="AMJ319" s="0"/>
     </row>
-    <row r="320" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="1" t="s">
         <v>631</v>
       </c>
@@ -20928,7 +20928,7 @@
       </c>
       <c r="AMJ320" s="0"/>
     </row>
-    <row r="321" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="1" t="s">
         <v>631</v>
       </c>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="AMJ321" s="0"/>
     </row>
-    <row r="322" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="1" t="s">
         <v>631</v>
       </c>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="AMJ322" s="0"/>
     </row>
-    <row r="323" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="1" t="s">
         <v>631</v>
       </c>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="AMJ323" s="0"/>
     </row>
-    <row r="324" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="1" t="s">
         <v>631</v>
       </c>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="AMJ324" s="0"/>
     </row>
-    <row r="325" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="1" t="s">
         <v>631</v>
       </c>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="AMJ325" s="0"/>
     </row>
-    <row r="326" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="1" t="s">
         <v>631</v>
       </c>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="AMJ326" s="0"/>
     </row>
-    <row r="327" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="1" t="s">
         <v>631</v>
       </c>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="AMJ327" s="0"/>
     </row>
-    <row r="328" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="1" t="s">
         <v>631</v>
       </c>
@@ -21288,7 +21288,7 @@
       </c>
       <c r="AMJ328" s="0"/>
     </row>
-    <row r="329" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="1" t="s">
         <v>631</v>
       </c>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="AMJ329" s="0"/>
     </row>
-    <row r="330" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="1" t="s">
         <v>631</v>
       </c>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="AMJ330" s="0"/>
     </row>
-    <row r="331" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="1" t="s">
         <v>631</v>
       </c>
@@ -21423,7 +21423,7 @@
       </c>
       <c r="AMJ331" s="0"/>
     </row>
-    <row r="332" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="1" t="s">
         <v>631</v>
       </c>
@@ -21468,7 +21468,7 @@
       </c>
       <c r="AMJ332" s="0"/>
     </row>
-    <row r="333" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="1" t="s">
         <v>631</v>
       </c>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="AMJ333" s="0"/>
     </row>
-    <row r="334" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="1" t="s">
         <v>631</v>
       </c>
@@ -21558,7 +21558,7 @@
       </c>
       <c r="AMJ334" s="0"/>
     </row>
-    <row r="335" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
         <v>631</v>
       </c>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="AMJ335" s="0"/>
     </row>
-    <row r="336" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="1" t="s">
         <v>631</v>
       </c>
@@ -21648,7 +21648,7 @@
       </c>
       <c r="AMJ336" s="0"/>
     </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="1" t="s">
         <v>693</v>
       </c>
@@ -21684,7 +21684,7 @@
       </c>
       <c r="AMJ337" s="0"/>
     </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="1" t="s">
         <v>693</v>
       </c>
@@ -21720,7 +21720,7 @@
       </c>
       <c r="AMJ338" s="0"/>
     </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="1" t="s">
         <v>693</v>
       </c>
@@ -21756,7 +21756,7 @@
       </c>
       <c r="AMJ339" s="0"/>
     </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="1" t="s">
         <v>693</v>
       </c>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="AMJ340" s="0"/>
     </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="1" t="s">
         <v>693</v>
       </c>
@@ -21828,7 +21828,7 @@
       </c>
       <c r="AMJ341" s="0"/>
     </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="1" t="s">
         <v>693</v>
       </c>
@@ -21864,7 +21864,7 @@
       </c>
       <c r="AMJ342" s="0"/>
     </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="1" t="s">
         <v>708</v>
       </c>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="AMJ343" s="0"/>
     </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="1" t="s">
         <v>708</v>
       </c>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="AMJ344" s="0"/>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="1" t="s">
         <v>708</v>
       </c>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="AMJ345" s="0"/>
     </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="1" t="s">
         <v>708</v>
       </c>
@@ -22044,7 +22044,7 @@
       </c>
       <c r="AMJ346" s="0"/>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="1" t="s">
         <v>708</v>
       </c>
@@ -22089,7 +22089,7 @@
       </c>
       <c r="AMJ347" s="0"/>
     </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="1" t="s">
         <v>96</v>
       </c>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="AMJ348" s="0"/>
     </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="1" t="s">
         <v>96</v>
       </c>
@@ -22185,17 +22185,17 @@
       </c>
       <c r="AMJ349" s="0"/>
     </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="AMJ350" s="0"/>
     </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
       <c r="AMJ351" s="0"/>
     </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="1" t="s">
         <v>727</v>
       </c>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="AMJ352" s="0"/>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="1" t="s">
         <v>727</v>
       </c>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="AMJ353" s="0"/>
     </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="1" t="s">
         <v>727</v>
       </c>
@@ -22330,7 +22330,7 @@
       </c>
       <c r="AMJ354" s="0"/>
     </row>
-    <row r="355" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="1" t="s">
         <v>737</v>
       </c>
@@ -22378,7 +22378,7 @@
       </c>
       <c r="AMJ355" s="0"/>
     </row>
-    <row r="356" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="1" t="s">
         <v>737</v>
       </c>
@@ -22426,7 +22426,7 @@
       </c>
       <c r="AMJ356" s="0"/>
     </row>
-    <row r="357" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="1" t="s">
         <v>737</v>
       </c>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="AMJ357" s="0"/>
     </row>
-    <row r="358" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="1" t="s">
         <v>737</v>
       </c>
@@ -22522,7 +22522,7 @@
       </c>
       <c r="AMJ358" s="0"/>
     </row>
-    <row r="359" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="1" t="s">
         <v>737</v>
       </c>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="AMJ359" s="0"/>
     </row>
-    <row r="360" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="1" t="s">
         <v>737</v>
       </c>
@@ -22618,7 +22618,7 @@
       </c>
       <c r="AMJ360" s="0"/>
     </row>
-    <row r="361" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="1" t="s">
         <v>737</v>
       </c>
@@ -22666,7 +22666,7 @@
       </c>
       <c r="AMJ361" s="0"/>
     </row>
-    <row r="362" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="1" t="s">
         <v>737</v>
       </c>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="AMJ362" s="0"/>
     </row>
-    <row r="363" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="1" t="s">
         <v>737</v>
       </c>
@@ -22762,7 +22762,7 @@
       </c>
       <c r="AMJ363" s="0"/>
     </row>
-    <row r="364" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="1" t="s">
         <v>737</v>
       </c>
@@ -22810,7 +22810,7 @@
       </c>
       <c r="AMJ364" s="0"/>
     </row>
-    <row r="365" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="1" t="s">
         <v>737</v>
       </c>
@@ -22858,7 +22858,7 @@
       </c>
       <c r="AMJ365" s="0"/>
     </row>
-    <row r="366" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="1" t="s">
         <v>737</v>
       </c>
@@ -22906,7 +22906,7 @@
       </c>
       <c r="AMJ366" s="0"/>
     </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="1" t="s">
         <v>764</v>
       </c>
@@ -22951,7 +22951,7 @@
       </c>
       <c r="AMJ367" s="0"/>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
       <c r="J368" s="2" t="s">
@@ -22962,7 +22962,7 @@
       </c>
       <c r="AMJ368" s="0"/>
     </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
       <c r="J369" s="2" t="s">
@@ -22973,7 +22973,7 @@
       </c>
       <c r="AMJ369" s="0"/>
     </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="1" t="s">
         <v>772</v>
       </c>
@@ -23012,7 +23012,7 @@
       </c>
       <c r="AMJ370" s="0"/>
     </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
       <c r="J371" s="2" t="s">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="AMJ371" s="0"/>
     </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="1" t="s">
         <v>778</v>
       </c>
@@ -23068,7 +23068,7 @@
       </c>
       <c r="AMJ372" s="0"/>
     </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="1" t="s">
         <v>778</v>
       </c>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="AMJ373" s="0"/>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="1" t="s">
         <v>414</v>
       </c>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="AMJ374" s="0"/>
     </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="1" t="s">
         <v>414</v>
       </c>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="AMJ375" s="0"/>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="1" t="s">
         <v>414</v>
       </c>
@@ -23236,7 +23236,7 @@
       </c>
       <c r="AMJ376" s="0"/>
     </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="1" t="s">
         <v>414</v>
       </c>
@@ -23275,7 +23275,7 @@
       </c>
       <c r="AMJ377" s="0"/>
     </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="1" t="s">
         <v>414</v>
       </c>
@@ -23314,7 +23314,7 @@
       </c>
       <c r="AMJ378" s="0"/>
     </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
       <c r="J379" s="2" t="s">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="AMJ379" s="0"/>
     </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="1" t="s">
         <v>798</v>
       </c>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="AMJ380" s="0"/>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="1" t="s">
         <v>798</v>
       </c>
@@ -23415,7 +23415,7 @@
       </c>
       <c r="AMJ381" s="0"/>
     </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="1" t="s">
         <v>778</v>
       </c>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="AMJ382" s="0"/>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="1" t="s">
         <v>808</v>
       </c>
@@ -23505,7 +23505,7 @@
       </c>
       <c r="AMJ383" s="0"/>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="1" t="s">
         <v>808</v>
       </c>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="AMJ384" s="0"/>
     </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="1" t="s">
         <v>808</v>
       </c>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="AMJ385" s="0"/>
     </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="1" t="s">
         <v>808</v>
       </c>
@@ -23640,7 +23640,7 @@
       </c>
       <c r="AMJ386" s="0"/>
     </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="1" t="s">
         <v>808</v>
       </c>
@@ -23685,7 +23685,7 @@
       </c>
       <c r="AMJ387" s="0"/>
     </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="1" t="s">
         <v>808</v>
       </c>
@@ -23730,7 +23730,7 @@
       </c>
       <c r="AMJ388" s="0"/>
     </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="1" t="s">
         <v>808</v>
       </c>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="AMJ389" s="0"/>
     </row>
-    <row r="390" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="4" t="s">
         <v>830</v>
       </c>
@@ -23805,7 +23805,7 @@
       </c>
       <c r="AMJ390" s="0"/>
     </row>
-    <row r="391" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="4" t="s">
         <v>830</v>
       </c>
@@ -23835,7 +23835,7 @@
       </c>
       <c r="AMJ391" s="0"/>
     </row>
-    <row r="392" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="4" t="s">
         <v>830</v>
       </c>
@@ -23865,7 +23865,7 @@
       </c>
       <c r="AMJ392" s="0"/>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="4"/>
       <c r="H393" s="7"/>
       <c r="J393" s="2" t="s">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="AMJ393" s="0"/>
     </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="1" t="s">
         <v>840</v>
       </c>
@@ -23921,7 +23921,7 @@
       </c>
       <c r="AMJ394" s="0"/>
     </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="1" t="s">
         <v>840</v>
       </c>
@@ -23966,7 +23966,7 @@
       </c>
       <c r="AMJ395" s="0"/>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="1" t="s">
         <v>840</v>
       </c>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="AMJ396" s="0"/>
     </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="1" t="s">
         <v>840</v>
       </c>
@@ -24056,7 +24056,7 @@
       </c>
       <c r="AMJ397" s="0"/>
     </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="1" t="s">
         <v>840</v>
       </c>
@@ -24101,7 +24101,7 @@
       </c>
       <c r="AMJ398" s="0"/>
     </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="1" t="s">
         <v>840</v>
       </c>
@@ -24146,7 +24146,7 @@
       </c>
       <c r="AMJ399" s="0"/>
     </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="1" t="s">
         <v>840</v>
       </c>
@@ -24191,7 +24191,7 @@
       </c>
       <c r="AMJ400" s="0"/>
     </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="1" t="s">
         <v>840</v>
       </c>
@@ -24236,7 +24236,7 @@
       </c>
       <c r="AMJ401" s="0"/>
     </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="1" t="s">
         <v>840</v>
       </c>
@@ -24281,7 +24281,7 @@
       </c>
       <c r="AMJ402" s="0"/>
     </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="1" t="s">
         <v>862</v>
       </c>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="AMJ403" s="0"/>
     </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="1" t="s">
         <v>865</v>
       </c>
@@ -24371,7 +24371,7 @@
       </c>
       <c r="AMJ404" s="0"/>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="1" t="s">
         <v>865</v>
       </c>
@@ -24416,7 +24416,7 @@
       </c>
       <c r="AMJ405" s="0"/>
     </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="1" t="s">
         <v>865</v>
       </c>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="AMJ406" s="0"/>
     </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="1" t="s">
         <v>865</v>
       </c>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="AMJ407" s="0"/>
     </row>
-    <row r="408" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="4" t="s">
         <v>875</v>
       </c>
@@ -24551,7 +24551,7 @@
       </c>
       <c r="AMJ408" s="0"/>
     </row>
-    <row r="409" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="4" t="s">
         <v>875</v>
       </c>
@@ -24596,7 +24596,7 @@
       </c>
       <c r="AMJ409" s="0"/>
     </row>
-    <row r="410" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="4" t="s">
         <v>875</v>
       </c>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="AMJ410" s="0"/>
     </row>
-    <row r="411" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="4" t="s">
         <v>875</v>
       </c>
@@ -24686,7 +24686,7 @@
       </c>
       <c r="AMJ411" s="0"/>
     </row>
-    <row r="412" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="4" t="s">
         <v>875</v>
       </c>
@@ -24731,7 +24731,7 @@
       </c>
       <c r="AMJ412" s="0"/>
     </row>
-    <row r="413" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="4" t="s">
         <v>875</v>
       </c>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="AMJ413" s="0"/>
     </row>
-    <row r="414" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="4" t="s">
         <v>875</v>
       </c>
@@ -24821,7 +24821,7 @@
       </c>
       <c r="AMJ414" s="0"/>
     </row>
-    <row r="415" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="4" t="s">
         <v>875</v>
       </c>
@@ -24866,7 +24866,7 @@
       </c>
       <c r="AMJ415" s="0"/>
     </row>
-    <row r="416" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="4" t="s">
         <v>875</v>
       </c>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="AMJ416" s="0"/>
     </row>
-    <row r="417" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="4" t="s">
         <v>875</v>
       </c>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="AMJ417" s="0"/>
     </row>
-    <row r="418" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="4" t="s">
         <v>875</v>
       </c>
@@ -25001,7 +25001,7 @@
       </c>
       <c r="AMJ418" s="0"/>
     </row>
-    <row r="419" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="4" t="s">
         <v>875</v>
       </c>
@@ -25046,7 +25046,7 @@
       </c>
       <c r="AMJ419" s="0"/>
     </row>
-    <row r="420" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="4" t="s">
         <v>875</v>
       </c>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="AMJ420" s="0"/>
     </row>
-    <row r="421" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="4" t="s">
         <v>875</v>
       </c>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="AMJ421" s="0"/>
     </row>
-    <row r="422" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="4" t="s">
         <v>875</v>
       </c>
@@ -25181,7 +25181,7 @@
       </c>
       <c r="AMJ422" s="0"/>
     </row>
-    <row r="423" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="4" t="s">
         <v>875</v>
       </c>
@@ -25226,7 +25226,7 @@
       </c>
       <c r="AMJ423" s="0"/>
     </row>
-    <row r="424" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="4" t="s">
         <v>875</v>
       </c>
@@ -25271,7 +25271,7 @@
       </c>
       <c r="AMJ424" s="0"/>
     </row>
-    <row r="425" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="4" t="s">
         <v>875</v>
       </c>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="AMJ425" s="0"/>
     </row>
-    <row r="426" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="4" t="s">
         <v>875</v>
       </c>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="AMJ426" s="0"/>
     </row>
-    <row r="427" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="4" t="s">
         <v>875</v>
       </c>
@@ -25406,7 +25406,7 @@
       </c>
       <c r="AMJ427" s="0"/>
     </row>
-    <row r="428" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="4" t="s">
         <v>875</v>
       </c>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="AMJ428" s="0"/>
     </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="4"/>
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="AMJ429" s="0"/>
     </row>
-    <row r="430" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="4" t="s">
         <v>927</v>
       </c>
@@ -25511,7 +25511,7 @@
       </c>
       <c r="AMJ430" s="0"/>
     </row>
-    <row r="431" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="4" t="s">
         <v>931</v>
       </c>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="AMJ431" s="0"/>
     </row>
-    <row r="432" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="4" t="s">
         <v>931</v>
       </c>
@@ -25601,7 +25601,7 @@
       </c>
       <c r="AMJ432" s="0"/>
     </row>
-    <row r="433" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="4" t="s">
         <v>931</v>
       </c>
@@ -25646,7 +25646,7 @@
       </c>
       <c r="AMJ433" s="0"/>
     </row>
-    <row r="434" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="4" t="s">
         <v>931</v>
       </c>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="AMJ434" s="0"/>
     </row>
-    <row r="435" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="4" t="s">
         <v>931</v>
       </c>
@@ -25736,7 +25736,7 @@
       </c>
       <c r="AMJ435" s="0"/>
     </row>
-    <row r="436" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="4" t="s">
         <v>943</v>
       </c>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="AMJ436" s="0"/>
     </row>
-    <row r="437" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="4" t="s">
         <v>943</v>
       </c>
@@ -25826,7 +25826,7 @@
       </c>
       <c r="AMJ437" s="0"/>
     </row>
-    <row r="438" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="4" t="s">
         <v>949</v>
       </c>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="AMJ438" s="0"/>
     </row>
-    <row r="439" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="4" t="s">
         <v>949</v>
       </c>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="AMJ439" s="0"/>
     </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="4"/>
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
@@ -25931,7 +25931,7 @@
       </c>
       <c r="AMJ440" s="0"/>
     </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="1" t="s">
         <v>587</v>
       </c>
@@ -25976,7 +25976,7 @@
       </c>
       <c r="AMJ441" s="0"/>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="1" t="s">
         <v>961</v>
       </c>
@@ -26021,7 +26021,7 @@
       </c>
       <c r="AMJ442" s="0"/>
     </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="1" t="s">
         <v>961</v>
       </c>
@@ -26066,7 +26066,7 @@
       </c>
       <c r="AMJ443" s="0"/>
     </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="1" t="s">
         <v>961</v>
       </c>
@@ -26111,7 +26111,7 @@
       </c>
       <c r="AMJ444" s="0"/>
     </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="1" t="s">
         <v>961</v>
       </c>
@@ -26156,7 +26156,7 @@
       </c>
       <c r="AMJ445" s="0"/>
     </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="1" t="s">
         <v>961</v>
       </c>
@@ -26201,7 +26201,7 @@
       </c>
       <c r="AMJ446" s="0"/>
     </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="1" t="s">
         <v>961</v>
       </c>
@@ -26246,7 +26246,7 @@
       </c>
       <c r="AMJ447" s="0"/>
     </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="1" t="s">
         <v>961</v>
       </c>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="AMJ448" s="0"/>
     </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="1" t="s">
         <v>961</v>
       </c>
@@ -26336,7 +26336,7 @@
       </c>
       <c r="AMJ449" s="0"/>
     </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="1" t="s">
         <v>979</v>
       </c>
@@ -26381,7 +26381,7 @@
       </c>
       <c r="AMJ450" s="0"/>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="1" t="s">
         <v>979</v>
       </c>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="AMJ451" s="0"/>
     </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="1" t="s">
         <v>979</v>
       </c>
@@ -26471,7 +26471,7 @@
       </c>
       <c r="AMJ452" s="0"/>
     </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="1" t="s">
         <v>979</v>
       </c>
@@ -26516,7 +26516,7 @@
       </c>
       <c r="AMJ453" s="0"/>
     </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="1" t="s">
         <v>979</v>
       </c>
@@ -26561,7 +26561,7 @@
       </c>
       <c r="AMJ454" s="0"/>
     </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="1" t="s">
         <v>979</v>
       </c>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="AMJ455" s="0"/>
     </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="1" t="s">
         <v>993</v>
       </c>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="AMJ456" s="0"/>
     </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="1" t="s">
         <v>993</v>
       </c>
@@ -26696,7 +26696,7 @@
       </c>
       <c r="AMJ457" s="0"/>
     </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="1" t="s">
         <v>993</v>
       </c>
@@ -26741,7 +26741,7 @@
       </c>
       <c r="AMJ458" s="0"/>
     </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="1" t="s">
         <v>993</v>
       </c>
@@ -26786,7 +26786,7 @@
       </c>
       <c r="AMJ459" s="0"/>
     </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="1" t="s">
         <v>1004</v>
       </c>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="AMJ460" s="0"/>
     </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="1" t="s">
         <v>1004</v>
       </c>
@@ -26876,7 +26876,7 @@
       </c>
       <c r="AMJ461" s="0"/>
     </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="1" t="s">
         <v>1011</v>
       </c>
@@ -26921,7 +26921,7 @@
       </c>
       <c r="AMJ462" s="0"/>
     </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="1" t="s">
         <v>1015</v>
       </c>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="AMJ463" s="0"/>
     </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H464" s="7"/>
       <c r="I464" s="7"/>
       <c r="J464" s="2" t="s">
@@ -26980,7 +26980,7 @@
       </c>
       <c r="AMJ464" s="0"/>
     </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="1" t="s">
         <v>1021</v>
       </c>
@@ -27025,7 +27025,7 @@
       </c>
       <c r="AMJ465" s="0"/>
     </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="1" t="s">
         <v>1021</v>
       </c>
@@ -27070,7 +27070,7 @@
       </c>
       <c r="AMJ466" s="0"/>
     </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="1" t="s">
         <v>1027</v>
       </c>
@@ -27106,7 +27106,7 @@
       </c>
       <c r="AMJ467" s="0"/>
     </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="1" t="s">
         <v>1027</v>
       </c>
@@ -27142,7 +27142,7 @@
       </c>
       <c r="AMJ468" s="0"/>
     </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H469" s="7"/>
       <c r="J469" s="2" t="s">
         <v>1033</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="AMJ469" s="0"/>
     </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="1" t="s">
         <v>1035</v>
       </c>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="AMJ470" s="0"/>
     </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="1" t="s">
         <v>1035</v>
       </c>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="AMJ471" s="0"/>
     </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="1" t="s">
         <v>1043</v>
       </c>
@@ -27275,7 +27275,7 @@
       </c>
       <c r="AMJ472" s="0"/>
     </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="1" t="s">
         <v>1043</v>
       </c>
@@ -27305,7 +27305,7 @@
       </c>
       <c r="AMJ473" s="0"/>
     </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="1" t="s">
         <v>1043</v>
       </c>
@@ -27335,7 +27335,7 @@
       </c>
       <c r="AMJ474" s="0"/>
     </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27380,7 +27380,7 @@
       </c>
       <c r="AMJ475" s="0"/>
     </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27425,7 +27425,7 @@
       </c>
       <c r="AMJ476" s="0"/>
     </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="AMJ477" s="0"/>
     </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27515,7 +27515,7 @@
       </c>
       <c r="AMJ478" s="0"/>
     </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27560,7 +27560,7 @@
       </c>
       <c r="AMJ479" s="0"/>
     </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27605,7 +27605,7 @@
       </c>
       <c r="AMJ480" s="0"/>
     </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27650,7 +27650,7 @@
       </c>
       <c r="AMJ481" s="0"/>
     </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27695,7 +27695,7 @@
       </c>
       <c r="AMJ482" s="0"/>
     </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27740,7 +27740,7 @@
       </c>
       <c r="AMJ483" s="0"/>
     </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27785,7 +27785,7 @@
       </c>
       <c r="AMJ484" s="0"/>
     </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="AMJ485" s="0"/>
     </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="AMJ486" s="0"/>
     </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27920,7 +27920,7 @@
       </c>
       <c r="AMJ487" s="0"/>
     </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="1" t="s">
         <v>1062</v>
       </c>
@@ -27965,7 +27965,7 @@
       </c>
       <c r="AMJ488" s="0"/>
     </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28010,7 +28010,7 @@
       </c>
       <c r="AMJ489" s="0"/>
     </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28055,7 +28055,7 @@
       </c>
       <c r="AMJ490" s="0"/>
     </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28100,7 +28100,7 @@
       </c>
       <c r="AMJ491" s="0"/>
     </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28145,7 +28145,7 @@
       </c>
       <c r="AMJ492" s="0"/>
     </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28190,7 +28190,7 @@
       </c>
       <c r="AMJ493" s="0"/>
     </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28235,7 +28235,7 @@
       </c>
       <c r="AMJ494" s="0"/>
     </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28280,7 +28280,7 @@
       </c>
       <c r="AMJ495" s="0"/>
     </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28325,7 +28325,7 @@
       </c>
       <c r="AMJ496" s="0"/>
     </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28370,7 +28370,7 @@
       </c>
       <c r="AMJ497" s="0"/>
     </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28415,7 +28415,7 @@
       </c>
       <c r="AMJ498" s="0"/>
     </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28460,7 +28460,7 @@
       </c>
       <c r="AMJ499" s="0"/>
     </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28505,7 +28505,7 @@
       </c>
       <c r="AMJ500" s="0"/>
     </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28550,7 +28550,7 @@
       </c>
       <c r="AMJ501" s="0"/>
     </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="AMJ502" s="0"/>
     </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28640,7 +28640,7 @@
       </c>
       <c r="AMJ503" s="0"/>
     </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B504" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="AMJ504" s="0"/>
     </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B505" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28730,7 +28730,7 @@
       </c>
       <c r="AMJ505" s="0"/>
     </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B506" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28775,7 +28775,7 @@
       </c>
       <c r="AMJ506" s="0"/>
     </row>
-    <row r="507" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B507" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="AMJ507" s="0"/>
     </row>
-    <row r="508" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B508" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28865,7 +28865,7 @@
       </c>
       <c r="AMJ508" s="0"/>
     </row>
-    <row r="509" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28910,7 +28910,7 @@
       </c>
       <c r="AMJ509" s="0"/>
     </row>
-    <row r="510" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B510" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28955,7 +28955,7 @@
       </c>
       <c r="AMJ510" s="0"/>
     </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29000,7 +29000,7 @@
       </c>
       <c r="AMJ511" s="0"/>
     </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29045,7 +29045,7 @@
       </c>
       <c r="AMJ512" s="0"/>
     </row>
-    <row r="513" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="AMJ513" s="0"/>
     </row>
-    <row r="514" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="AMJ514" s="0"/>
     </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29180,7 +29180,7 @@
       </c>
       <c r="AMJ515" s="0"/>
     </row>
-    <row r="516" s="11" customFormat="true" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" s="11" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="8"/>
       <c r="B516" s="20" t="s">
         <v>1062</v>
@@ -29226,7 +29226,7 @@
       </c>
       <c r="AMJ516" s="22"/>
     </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="AMJ517" s="0"/>
     </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B518" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29316,7 +29316,7 @@
       </c>
       <c r="AMJ518" s="0"/>
     </row>
-    <row r="519" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B519" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="AMJ519" s="0"/>
     </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="AMJ520" s="0"/>
     </row>
-    <row r="521" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29451,7 +29451,7 @@
       </c>
       <c r="AMJ521" s="0"/>
     </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29496,7 +29496,7 @@
       </c>
       <c r="AMJ522" s="0"/>
     </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29541,7 +29541,7 @@
       </c>
       <c r="AMJ523" s="0"/>
     </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29586,7 +29586,7 @@
       </c>
       <c r="AMJ524" s="0"/>
     </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B525" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29631,7 +29631,7 @@
       </c>
       <c r="AMJ525" s="0"/>
     </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B526" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29676,7 +29676,7 @@
       </c>
       <c r="AMJ526" s="0"/>
     </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="AMJ527" s="0"/>
     </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="AMJ528" s="0"/>
     </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29811,7 +29811,7 @@
       </c>
       <c r="AMJ529" s="0"/>
     </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B530" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29856,7 +29856,7 @@
       </c>
       <c r="AMJ530" s="0"/>
     </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29901,7 +29901,7 @@
       </c>
       <c r="AMJ531" s="0"/>
     </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29946,7 +29946,7 @@
       </c>
       <c r="AMJ532" s="0"/>
     </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B533" s="1" t="s">
         <v>1062</v>
       </c>
@@ -29991,7 +29991,7 @@
       </c>
       <c r="AMJ533" s="0"/>
     </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30036,7 +30036,7 @@
       </c>
       <c r="AMJ534" s="0"/>
     </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="AMJ535" s="0"/>
     </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="AMJ536" s="0"/>
     </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="AMJ537" s="0"/>
     </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30216,7 +30216,7 @@
       </c>
       <c r="AMJ538" s="0"/>
     </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30261,7 +30261,7 @@
       </c>
       <c r="AMJ539" s="0"/>
     </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30306,7 +30306,7 @@
       </c>
       <c r="AMJ540" s="0"/>
     </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30351,7 +30351,7 @@
       </c>
       <c r="AMJ541" s="0"/>
     </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30396,7 +30396,7 @@
       </c>
       <c r="AMJ542" s="0"/>
     </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B543" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30441,7 +30441,7 @@
       </c>
       <c r="AMJ543" s="0"/>
     </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30486,7 +30486,7 @@
       </c>
       <c r="AMJ544" s="0"/>
     </row>
-    <row r="545" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="AMJ545" s="0"/>
     </row>
-    <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H546" s="7"/>
       <c r="I546" s="7"/>
       <c r="J546" s="2" t="s">
@@ -30545,7 +30545,7 @@
       </c>
       <c r="AMJ546" s="0"/>
     </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H547" s="7"/>
       <c r="I547" s="7"/>
       <c r="J547" s="2" t="s">
@@ -30559,7 +30559,7 @@
       </c>
       <c r="AMJ547" s="0"/>
     </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H548" s="7"/>
       <c r="I548" s="7"/>
       <c r="J548" s="2" t="s">
@@ -30573,7 +30573,7 @@
       </c>
       <c r="AMJ548" s="0"/>
     </row>
-    <row r="549" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H549" s="7"/>
       <c r="I549" s="7"/>
       <c r="J549" s="2" t="s">
@@ -30587,7 +30587,7 @@
       </c>
       <c r="AMJ549" s="0"/>
     </row>
-    <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="1" t="s">
         <v>331</v>
       </c>
@@ -30632,7 +30632,7 @@
       </c>
       <c r="AMJ550" s="0"/>
     </row>
-    <row r="551" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="1" t="s">
         <v>331</v>
       </c>
@@ -30677,7 +30677,7 @@
       </c>
       <c r="AMJ551" s="0"/>
     </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="1" t="s">
         <v>331</v>
       </c>
@@ -30722,7 +30722,7 @@
       </c>
       <c r="AMJ552" s="0"/>
     </row>
-    <row r="553" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B553" s="1" t="s">
         <v>331</v>
       </c>
@@ -30767,7 +30767,7 @@
       </c>
       <c r="AMJ553" s="0"/>
     </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="1" t="s">
         <v>331</v>
       </c>
@@ -30812,7 +30812,7 @@
       </c>
       <c r="AMJ554" s="0"/>
     </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="1" t="s">
         <v>331</v>
       </c>
@@ -30857,7 +30857,7 @@
       </c>
       <c r="AMJ555" s="0"/>
     </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H556" s="7"/>
       <c r="I556" s="7"/>
       <c r="J556" s="2" t="s">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="AMJ556" s="0"/>
     </row>
-    <row r="557" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="1" t="s">
         <v>331</v>
       </c>
@@ -30916,7 +30916,7 @@
       </c>
       <c r="AMJ557" s="0"/>
     </row>
-    <row r="558" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="1" t="s">
         <v>331</v>
       </c>
@@ -30961,7 +30961,7 @@
       </c>
       <c r="AMJ558" s="0"/>
     </row>
-    <row r="559" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H559" s="7"/>
       <c r="I559" s="7"/>
       <c r="J559" s="2" t="s">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="AMJ559" s="0"/>
     </row>
-    <row r="560" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="1" t="s">
         <v>331</v>
       </c>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="AMJ560" s="0"/>
     </row>
-    <row r="561" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="1" t="s">
         <v>331</v>
       </c>
@@ -31065,7 +31065,7 @@
       </c>
       <c r="AMJ561" s="0"/>
     </row>
-    <row r="562" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="1" t="s">
         <v>331</v>
       </c>
@@ -31110,7 +31110,7 @@
       </c>
       <c r="AMJ562" s="0"/>
     </row>
-    <row r="563" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="1" t="s">
         <v>331</v>
       </c>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="AMJ563" s="0"/>
     </row>
-    <row r="564" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="1" t="s">
         <v>331</v>
       </c>
@@ -31200,7 +31200,7 @@
       </c>
       <c r="AMJ564" s="0"/>
     </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="1" t="s">
         <v>331</v>
       </c>
@@ -31245,7 +31245,7 @@
       </c>
       <c r="AMJ565" s="0"/>
     </row>
-    <row r="566" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="1" t="s">
         <v>331</v>
       </c>
@@ -31290,7 +31290,7 @@
       </c>
       <c r="AMJ566" s="0"/>
     </row>
-    <row r="567" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="1" t="s">
         <v>331</v>
       </c>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="AMJ567" s="0"/>
     </row>
-    <row r="568" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="1" t="s">
         <v>331</v>
       </c>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="AMJ568" s="0"/>
     </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="1" t="s">
         <v>331</v>
       </c>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="AMJ569" s="0"/>
     </row>
-    <row r="570" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31470,7 +31470,7 @@
       </c>
       <c r="AMJ570" s="0"/>
     </row>
-    <row r="571" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31515,7 +31515,7 @@
       </c>
       <c r="AMJ571" s="0"/>
     </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31560,7 +31560,7 @@
       </c>
       <c r="AMJ572" s="0"/>
     </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31605,7 +31605,7 @@
       </c>
       <c r="AMJ573" s="0"/>
     </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B574" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31650,7 +31650,7 @@
       </c>
       <c r="AMJ574" s="0"/>
     </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31695,7 +31695,7 @@
       </c>
       <c r="AMJ575" s="0"/>
     </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="AMJ576" s="0"/>
     </row>
-    <row r="577" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B577" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31785,7 +31785,7 @@
       </c>
       <c r="AMJ577" s="0"/>
     </row>
-    <row r="578" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="AMJ578" s="0"/>
     </row>
-    <row r="579" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="AMJ579" s="0"/>
     </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31920,7 +31920,7 @@
       </c>
       <c r="AMJ580" s="0"/>
     </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B581" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31965,7 +31965,7 @@
       </c>
       <c r="AMJ581" s="0"/>
     </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B582" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="AMJ582" s="0"/>
     </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32055,7 +32055,7 @@
       </c>
       <c r="AMJ583" s="0"/>
     </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="AMJ584" s="0"/>
     </row>
-    <row r="585" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H585" s="7"/>
       <c r="I585" s="7"/>
       <c r="J585" s="2" t="s">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="AMJ585" s="0"/>
     </row>
-    <row r="586" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32159,7 +32159,7 @@
       </c>
       <c r="AMJ586" s="0"/>
     </row>
-    <row r="587" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32204,7 +32204,7 @@
       </c>
       <c r="AMJ587" s="0"/>
     </row>
-    <row r="588" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32249,7 +32249,7 @@
       </c>
       <c r="AMJ588" s="0"/>
     </row>
-    <row r="589" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32294,7 +32294,7 @@
       </c>
       <c r="AMJ589" s="0"/>
     </row>
-    <row r="590" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32339,7 +32339,7 @@
       </c>
       <c r="AMJ590" s="0"/>
     </row>
-    <row r="591" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B591" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32384,7 +32384,7 @@
       </c>
       <c r="AMJ591" s="0"/>
     </row>
-    <row r="592" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B592" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32429,7 +32429,7 @@
       </c>
       <c r="AMJ592" s="0"/>
     </row>
-    <row r="593" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32474,7 +32474,7 @@
       </c>
       <c r="AMJ593" s="0"/>
     </row>
-    <row r="594" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32519,7 +32519,7 @@
       </c>
       <c r="AMJ594" s="0"/>
     </row>
-    <row r="595" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32564,7 +32564,7 @@
       </c>
       <c r="AMJ595" s="0"/>
     </row>
-    <row r="596" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32609,7 +32609,7 @@
       </c>
       <c r="AMJ596" s="0"/>
     </row>
-    <row r="597" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32654,7 +32654,7 @@
       </c>
       <c r="AMJ597" s="0"/>
     </row>
-    <row r="598" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32699,7 +32699,7 @@
       </c>
       <c r="AMJ598" s="0"/>
     </row>
-    <row r="599" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32744,7 +32744,7 @@
       </c>
       <c r="AMJ599" s="0"/>
     </row>
-    <row r="600" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32789,7 +32789,7 @@
       </c>
       <c r="AMJ600" s="0"/>
     </row>
-    <row r="601" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B601" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32834,7 +32834,7 @@
       </c>
       <c r="AMJ601" s="0"/>
     </row>
-    <row r="602" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32879,7 +32879,7 @@
       </c>
       <c r="AMJ602" s="0"/>
     </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32924,7 +32924,7 @@
       </c>
       <c r="AMJ603" s="0"/>
     </row>
-    <row r="604" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32969,7 +32969,7 @@
       </c>
       <c r="AMJ604" s="0"/>
     </row>
-    <row r="605" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H605" s="7"/>
       <c r="I605" s="7"/>
       <c r="J605" s="2" t="s">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="AMJ605" s="0"/>
     </row>
-    <row r="606" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H606" s="7"/>
       <c r="I606" s="7"/>
       <c r="J606" s="2" t="s">
@@ -32997,7 +32997,7 @@
       </c>
       <c r="AMJ606" s="0"/>
     </row>
-    <row r="607" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33042,7 +33042,7 @@
       </c>
       <c r="AMJ607" s="0"/>
     </row>
-    <row r="608" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33087,7 +33087,7 @@
       </c>
       <c r="AMJ608" s="0"/>
     </row>
-    <row r="609" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33132,7 +33132,7 @@
       </c>
       <c r="AMJ609" s="0"/>
     </row>
-    <row r="610" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="AMJ610" s="0"/>
     </row>
-    <row r="611" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B611" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33222,7 +33222,7 @@
       </c>
       <c r="AMJ611" s="0"/>
     </row>
-    <row r="612" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B612" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33267,7 +33267,7 @@
       </c>
       <c r="AMJ612" s="0"/>
     </row>
-    <row r="613" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="AMJ613" s="0"/>
     </row>
-    <row r="614" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33357,7 +33357,7 @@
       </c>
       <c r="AMJ614" s="0"/>
     </row>
-    <row r="615" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H615" s="7"/>
       <c r="I615" s="7"/>
       <c r="J615" s="2" t="s">
@@ -33371,7 +33371,7 @@
       </c>
       <c r="AMJ615" s="0"/>
     </row>
-    <row r="616" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B616" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="AMJ616" s="0"/>
     </row>
-    <row r="617" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33461,7 +33461,7 @@
       </c>
       <c r="AMJ617" s="0"/>
     </row>
-    <row r="618" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33506,7 +33506,7 @@
       </c>
       <c r="AMJ618" s="0"/>
     </row>
-    <row r="619" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B619" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="AMJ619" s="0"/>
     </row>
-    <row r="620" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B620" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33596,7 +33596,7 @@
       </c>
       <c r="AMJ620" s="0"/>
     </row>
-    <row r="621" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H621" s="7"/>
       <c r="I621" s="7"/>
       <c r="J621" s="2" t="s">
@@ -33610,7 +33610,7 @@
       </c>
       <c r="AMJ621" s="0"/>
     </row>
-    <row r="622" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B622" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33643,7 +33643,7 @@
       </c>
       <c r="AMJ622" s="0"/>
     </row>
-    <row r="623" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B623" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33676,7 +33676,7 @@
       </c>
       <c r="AMJ623" s="0"/>
     </row>
-    <row r="624" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B624" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33709,7 +33709,7 @@
       </c>
       <c r="AMJ624" s="0"/>
     </row>
-    <row r="625" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B625" s="1" t="s">
         <v>1265</v>
       </c>
@@ -33787,7 +33787,7 @@
       </c>
       <c r="AMJ626" s="0"/>
     </row>
-    <row r="627" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B627" s="1" t="s">
         <v>1384</v>
       </c>
@@ -33829,7 +33829,7 @@
       </c>
       <c r="AMJ627" s="0"/>
     </row>
-    <row r="628" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B628" s="1" t="s">
         <v>1384</v>
       </c>
@@ -33871,7 +33871,7 @@
       </c>
       <c r="AMJ628" s="0"/>
     </row>
-    <row r="629" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B629" s="1" t="s">
         <v>1384</v>
       </c>
@@ -33913,7 +33913,7 @@
       </c>
       <c r="AMJ629" s="0"/>
     </row>
-    <row r="630" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H630" s="7"/>
       <c r="I630" s="7"/>
       <c r="J630" s="2" t="s">
@@ -33927,7 +33927,7 @@
       </c>
       <c r="AMJ630" s="0"/>
     </row>
-    <row r="631" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B631" s="1" t="s">
         <v>1384</v>
       </c>
@@ -33969,7 +33969,7 @@
       </c>
       <c r="AMJ631" s="0"/>
     </row>
-    <row r="632" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B632" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34011,7 +34011,7 @@
       </c>
       <c r="AMJ632" s="0"/>
     </row>
-    <row r="633" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B633" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34053,7 +34053,7 @@
       </c>
       <c r="AMJ633" s="0"/>
     </row>
-    <row r="634" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34095,7 +34095,7 @@
       </c>
       <c r="AMJ634" s="0"/>
     </row>
-    <row r="635" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B635" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34137,7 +34137,7 @@
       </c>
       <c r="AMJ635" s="0"/>
     </row>
-    <row r="636" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B636" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34179,7 +34179,7 @@
       </c>
       <c r="AMJ636" s="0"/>
     </row>
-    <row r="637" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34221,7 +34221,7 @@
       </c>
       <c r="AMJ637" s="0"/>
     </row>
-    <row r="638" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B638" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34263,7 +34263,7 @@
       </c>
       <c r="AMJ638" s="0"/>
     </row>
-    <row r="639" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34305,7 +34305,7 @@
       </c>
       <c r="AMJ639" s="0"/>
     </row>
-    <row r="640" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34347,7 +34347,7 @@
       </c>
       <c r="AMJ640" s="0"/>
     </row>
-    <row r="641" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B641" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34389,7 +34389,7 @@
       </c>
       <c r="AMJ641" s="0"/>
     </row>
-    <row r="642" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B642" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34431,7 +34431,7 @@
       </c>
       <c r="AMJ642" s="0"/>
     </row>
-    <row r="643" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B643" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34473,7 +34473,7 @@
       </c>
       <c r="AMJ643" s="0"/>
     </row>
-    <row r="644" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H644" s="7"/>
       <c r="I644" s="7"/>
       <c r="J644" s="2" t="s">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="AMJ644" s="0"/>
     </row>
-    <row r="645" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B645" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34529,7 +34529,7 @@
       </c>
       <c r="AMJ645" s="0"/>
     </row>
-    <row r="646" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H646" s="7"/>
       <c r="I646" s="7"/>
       <c r="J646" s="2" t="s">
@@ -34543,7 +34543,7 @@
       </c>
       <c r="AMJ646" s="0"/>
     </row>
-    <row r="647" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H647" s="7"/>
       <c r="I647" s="7"/>
       <c r="J647" s="2" t="s">
@@ -34557,7 +34557,7 @@
       </c>
       <c r="AMJ647" s="0"/>
     </row>
-    <row r="648" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B648" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34599,7 +34599,7 @@
       </c>
       <c r="AMJ648" s="0"/>
     </row>
-    <row r="649" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B649" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34641,7 +34641,7 @@
       </c>
       <c r="AMJ649" s="0"/>
     </row>
-    <row r="650" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="1" t="s">
         <v>1384</v>
       </c>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="AMJ650" s="0"/>
     </row>
-    <row r="651" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H651" s="7"/>
       <c r="I651" s="7"/>
       <c r="J651" s="2" t="s">
@@ -34697,7 +34697,7 @@
       </c>
       <c r="AMJ651" s="0"/>
     </row>
-    <row r="652" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="1" t="s">
         <v>1438</v>
       </c>
@@ -34741,7 +34741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B653" s="1" t="s">
         <v>1438</v>
       </c>
@@ -34785,7 +34785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B654" s="1" t="s">
         <v>1438</v>
       </c>
@@ -34829,7 +34829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="1" t="s">
         <v>1438</v>
       </c>
@@ -34873,7 +34873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="1" t="s">
         <v>1438</v>
       </c>
@@ -34917,7 +34917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B657" s="1" t="s">
         <v>1438</v>
       </c>
@@ -34962,7 +34962,7 @@
       </c>
       <c r="AMJ657" s="0"/>
     </row>
-    <row r="658" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="1" t="s">
         <v>1438</v>
       </c>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="AMJ658" s="0"/>
     </row>
-    <row r="659" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="1" t="s">
         <v>452</v>
       </c>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="AMJ659" s="0"/>
     </row>
-    <row r="660" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="1" t="s">
         <v>452</v>
       </c>
@@ -35097,7 +35097,7 @@
       </c>
       <c r="AMJ660" s="0"/>
     </row>
-    <row r="661" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="1" t="s">
         <v>452</v>
       </c>
@@ -35142,7 +35142,7 @@
       </c>
       <c r="AMJ661" s="0"/>
     </row>
-    <row r="662" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B662" s="1" t="s">
         <v>1459</v>
       </c>
@@ -35187,7 +35187,7 @@
       </c>
       <c r="AMJ662" s="0"/>
     </row>
-    <row r="663" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="1" t="s">
         <v>1459</v>
       </c>
@@ -35232,7 +35232,7 @@
       </c>
       <c r="AMJ663" s="0"/>
     </row>
-    <row r="664" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B664" s="1" t="s">
         <v>1459</v>
       </c>
@@ -35277,7 +35277,7 @@
       </c>
       <c r="AMJ664" s="0"/>
     </row>
-    <row r="665" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B665" s="1" t="s">
         <v>1464</v>
       </c>
@@ -35320,7 +35320,7 @@
       </c>
       <c r="AMJ665" s="0"/>
     </row>
-    <row r="666" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B666" s="1" t="s">
         <v>1466</v>
       </c>
@@ -35365,7 +35365,7 @@
       </c>
       <c r="AMJ666" s="0"/>
     </row>
-    <row r="667" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="1" t="s">
         <v>1469</v>
       </c>
@@ -35410,7 +35410,7 @@
       </c>
       <c r="AMJ667" s="0"/>
     </row>
-    <row r="668" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="1" t="s">
         <v>1469</v>
       </c>
@@ -35455,7 +35455,7 @@
       </c>
       <c r="AMJ668" s="0"/>
     </row>
-    <row r="669" customFormat="false" ht="35.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="1" t="s">
         <v>96</v>
       </c>
@@ -35503,7 +35503,7 @@
       </c>
       <c r="AMJ669" s="0"/>
     </row>
-    <row r="670" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B670" s="1" t="s">
         <v>737</v>
       </c>
@@ -35551,7 +35551,7 @@
       </c>
       <c r="AMJ670" s="0"/>
     </row>
-    <row r="671" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B671" s="1" t="s">
         <v>1438</v>
       </c>
@@ -35596,7 +35596,7 @@
       </c>
       <c r="AMJ671" s="0"/>
     </row>
-    <row r="672" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B672" s="1" t="s">
         <v>1483</v>
       </c>
@@ -35647,7 +35647,7 @@
       </c>
       <c r="AMJ672" s="0"/>
     </row>
-    <row r="673" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B673" s="1" t="s">
         <v>1487</v>
       </c>
@@ -35698,7 +35698,7 @@
       </c>
       <c r="AMJ673" s="0"/>
     </row>
-    <row r="674" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B674" s="1" t="s">
         <v>1487</v>
       </c>
@@ -35749,7 +35749,7 @@
       </c>
       <c r="AMJ674" s="0"/>
     </row>
-    <row r="675" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B675" s="1" t="s">
         <v>1487</v>
       </c>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="AMJ675" s="0"/>
     </row>
-    <row r="676" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B676" s="1" t="s">
         <v>1494</v>
       </c>
@@ -35851,7 +35851,7 @@
       </c>
       <c r="AMJ676" s="0"/>
     </row>
-    <row r="677" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="1" t="s">
         <v>1497</v>
       </c>
@@ -35902,7 +35902,7 @@
       </c>
       <c r="AMJ677" s="0"/>
     </row>
-    <row r="678" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B678" s="1" t="s">
         <v>1499</v>
       </c>
@@ -35953,7 +35953,7 @@
       </c>
       <c r="AMJ678" s="0"/>
     </row>
-    <row r="679" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="1" t="s">
         <v>1494</v>
       </c>
@@ -36004,7 +36004,7 @@
       </c>
       <c r="AMJ679" s="0"/>
     </row>
-    <row r="680" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="1" t="s">
         <v>1494</v>
       </c>
@@ -36055,7 +36055,7 @@
       </c>
       <c r="AMJ680" s="0"/>
     </row>
-    <row r="681" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B681" s="1" t="s">
         <v>1494</v>
       </c>
@@ -36106,7 +36106,7 @@
       </c>
       <c r="AMJ681" s="0"/>
     </row>
-    <row r="682" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B682" s="1" t="s">
         <v>1494</v>
       </c>
@@ -36157,7 +36157,7 @@
       </c>
       <c r="AMJ682" s="0"/>
     </row>
-    <row r="683" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B683" s="1" t="s">
         <v>1494</v>
       </c>
@@ -36208,7 +36208,7 @@
       </c>
       <c r="AMJ683" s="0"/>
     </row>
-    <row r="684" s="11" customFormat="true" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" s="11" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="8"/>
       <c r="B684" s="8" t="s">
         <v>1494</v>
@@ -36262,7 +36262,7 @@
       </c>
       <c r="AMJ684" s="12"/>
     </row>
-    <row r="685" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B685" s="1" t="s">
         <v>1510</v>
       </c>
@@ -36313,7 +36313,7 @@
       </c>
       <c r="AMJ685" s="0"/>
     </row>
-    <row r="686" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B686" s="1" t="s">
         <v>1514</v>
       </c>
@@ -36364,7 +36364,7 @@
       </c>
       <c r="AMJ686" s="0"/>
     </row>
-    <row r="687" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="1" t="s">
         <v>1516</v>
       </c>
@@ -36415,7 +36415,7 @@
       </c>
       <c r="AMJ687" s="0"/>
     </row>
-    <row r="688" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B688" s="1" t="s">
         <v>1518</v>
       </c>
@@ -36466,7 +36466,7 @@
       </c>
       <c r="AMJ688" s="0"/>
     </row>
-    <row r="689" s="11" customFormat="true" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" s="11" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="8"/>
       <c r="B689" s="8" t="s">
         <v>1521</v>
@@ -36520,7 +36520,7 @@
       </c>
       <c r="AMJ689" s="12"/>
     </row>
-    <row r="690" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="1" t="s">
         <v>283</v>
       </c>
@@ -36571,7 +36571,7 @@
       </c>
       <c r="AMJ690" s="0"/>
     </row>
-    <row r="691" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B691" s="1" t="s">
         <v>1525</v>
       </c>
@@ -36622,7 +36622,7 @@
       </c>
       <c r="AMJ691" s="0"/>
     </row>
-    <row r="692" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B692" s="1" t="s">
         <v>1525</v>
       </c>
@@ -36673,7 +36673,7 @@
       </c>
       <c r="AMJ692" s="0"/>
     </row>
-    <row r="693" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B693" s="1" t="s">
         <v>1525</v>
       </c>
@@ -36724,7 +36724,7 @@
       </c>
       <c r="AMJ693" s="0"/>
     </row>
-    <row r="694" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B694" s="1" t="s">
         <v>30</v>
       </c>
@@ -36775,7 +36775,7 @@
       </c>
       <c r="AMJ694" s="0"/>
     </row>
-    <row r="695" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B695" s="1" t="s">
         <v>1510</v>
       </c>
@@ -36826,7 +36826,7 @@
       </c>
       <c r="AMJ695" s="0"/>
     </row>
-    <row r="696" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B696" s="1" t="s">
         <v>1532</v>
       </c>
@@ -36877,7 +36877,7 @@
       </c>
       <c r="AMJ696" s="0"/>
     </row>
-    <row r="697" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B697" s="1" t="s">
         <v>1535</v>
       </c>
@@ -36928,7 +36928,7 @@
       </c>
       <c r="AMJ697" s="0"/>
     </row>
-    <row r="698" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B698" s="1" t="s">
         <v>1537</v>
       </c>
@@ -36979,7 +36979,7 @@
       </c>
       <c r="AMJ698" s="0"/>
     </row>
-    <row r="699" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B699" s="1" t="s">
         <v>1537</v>
       </c>
@@ -37030,7 +37030,7 @@
       </c>
       <c r="AMJ699" s="0"/>
     </row>
-    <row r="700" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B700" s="1" t="s">
         <v>1537</v>
       </c>
@@ -37081,7 +37081,7 @@
       </c>
       <c r="AMJ700" s="0"/>
     </row>
-    <row r="701" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B701" s="1" t="s">
         <v>1542</v>
       </c>
@@ -37132,7 +37132,7 @@
       </c>
       <c r="AMJ701" s="0"/>
     </row>
-    <row r="702" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B702" s="1" t="s">
         <v>1542</v>
       </c>
@@ -37183,7 +37183,7 @@
       </c>
       <c r="AMJ702" s="0"/>
     </row>
-    <row r="703" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B703" s="1" t="s">
         <v>1542</v>
       </c>
@@ -37234,7 +37234,7 @@
       </c>
       <c r="AMJ703" s="0"/>
     </row>
-    <row r="704" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B704" s="1" t="s">
         <v>1542</v>
       </c>
@@ -37285,7 +37285,7 @@
       </c>
       <c r="AMJ704" s="0"/>
     </row>
-    <row r="705" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B705" s="1" t="s">
         <v>1542</v>
       </c>
@@ -37336,7 +37336,7 @@
       </c>
       <c r="AMJ705" s="0"/>
     </row>
-    <row r="706" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B706" s="1" t="s">
         <v>1550</v>
       </c>
@@ -37387,7 +37387,7 @@
       </c>
       <c r="AMJ706" s="0"/>
     </row>
-    <row r="707" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B707" s="1" t="s">
         <v>1550</v>
       </c>
@@ -37438,7 +37438,7 @@
       </c>
       <c r="AMJ707" s="0"/>
     </row>
-    <row r="708" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="1" t="s">
         <v>1550</v>
       </c>
@@ -37489,7 +37489,7 @@
       </c>
       <c r="AMJ708" s="0"/>
     </row>
-    <row r="709" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="1" t="s">
         <v>1556</v>
       </c>
@@ -37540,7 +37540,7 @@
       </c>
       <c r="AMJ709" s="0"/>
     </row>
-    <row r="710" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="1" t="s">
         <v>1558</v>
       </c>
@@ -37591,7 +37591,7 @@
       </c>
       <c r="AMJ710" s="0"/>
     </row>
-    <row r="711" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="1" t="s">
         <v>1561</v>
       </c>
@@ -37642,7 +37642,7 @@
       </c>
       <c r="AMJ711" s="0"/>
     </row>
-    <row r="712" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="1" t="s">
         <v>1561</v>
       </c>
@@ -37693,7 +37693,7 @@
       </c>
       <c r="AMJ712" s="0"/>
     </row>
-    <row r="713" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="1" t="s">
         <v>1499</v>
       </c>
@@ -37744,7 +37744,7 @@
       </c>
       <c r="AMJ713" s="0"/>
     </row>
-    <row r="714" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="1" t="s">
         <v>1499</v>
       </c>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="AMJ714" s="0"/>
     </row>
-    <row r="715" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="1" t="s">
         <v>169</v>
       </c>
@@ -37849,7 +37849,7 @@
       </c>
       <c r="AMJ715" s="0"/>
     </row>
-    <row r="716" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="1" t="s">
         <v>1572</v>
       </c>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="AMJ716" s="0"/>
     </row>
-    <row r="717" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B717" s="1" t="s">
         <v>1574</v>
       </c>
@@ -37954,7 +37954,7 @@
       </c>
       <c r="AMJ717" s="0"/>
     </row>
-    <row r="718" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="1" t="s">
         <v>561</v>
       </c>
@@ -37999,7 +37999,7 @@
       </c>
       <c r="AMJ718" s="0"/>
     </row>
-    <row r="719" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="1" t="s">
         <v>561</v>
       </c>
@@ -38044,7 +38044,7 @@
       </c>
       <c r="AMJ719" s="0"/>
     </row>
-    <row r="720" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="2" t="s">
         <v>808</v>
       </c>
@@ -38092,7 +38092,7 @@
       </c>
       <c r="AMJ720" s="2"/>
     </row>
-    <row r="721" s="2" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B721" s="2" t="s">
         <v>840</v>
       </c>
@@ -38136,7 +38136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="722" s="2" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="2" t="s">
         <v>737</v>
       </c>
@@ -38180,7 +38180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="2" t="s">
         <v>737</v>
       </c>
@@ -38227,7 +38227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="2" t="s">
         <v>737</v>
       </c>
@@ -38274,7 +38274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="2" t="s">
         <v>737</v>
       </c>
@@ -38321,7 +38321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="2" t="s">
         <v>737</v>
       </c>
@@ -38368,7 +38368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="2" t="s">
         <v>737</v>
       </c>
@@ -38415,7 +38415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="2" t="s">
         <v>737</v>
       </c>
@@ -38462,7 +38462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="2" t="s">
         <v>737</v>
       </c>
@@ -38509,7 +38509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B730" s="2" t="s">
         <v>737</v>
       </c>
@@ -38556,7 +38556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0"/>
       <c r="B731" s="2" t="s">
         <v>737</v>
@@ -39610,7 +39610,7 @@
       <c r="AMI731" s="0"/>
       <c r="AMJ731" s="0"/>
     </row>
-    <row r="732" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0"/>
       <c r="B732" s="2" t="s">
         <v>737</v>
@@ -40664,7 +40664,7 @@
       <c r="AMI732" s="0"/>
       <c r="AMJ732" s="0"/>
     </row>
-    <row r="733" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B733" s="1" t="s">
         <v>1599</v>
       </c>
@@ -40708,7 +40708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B734" s="1" t="s">
         <v>1599</v>
       </c>
@@ -40752,7 +40752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="1" t="s">
         <v>1599</v>
       </c>
@@ -40796,7 +40796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="1" t="s">
         <v>1605</v>
       </c>
@@ -40837,7 +40837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="1" t="s">
         <v>1062</v>
       </c>
@@ -40881,7 +40881,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="1" t="s">
         <v>1062</v>
       </c>
@@ -40925,7 +40925,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B739" s="1" t="s">
         <v>1062</v>
       </c>
@@ -40969,7 +40969,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="1" t="s">
         <v>1062</v>
       </c>
@@ -41014,18 +41014,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:R740">
-    <filterColumn colId="15">
-      <customFilters and="true">
-        <customFilter operator="equal" val="OK_main"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="0"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:S740"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
